--- a/output/DIF.xlsx
+++ b/output/DIF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/.shortcut-targets-by-id/1vWDqJojoig5JxYelOR5O7o-U-YbiHeqr/Professional work/Doctoral work/a. Coursework/IRT/Final project/VI DIF/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4BB46C-4186-004A-B7E0-46F1353B9F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32872D9-2368-8347-8EBB-7A22E4CD8DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="540" windowWidth="28820" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="120" yWindow="540" windowWidth="28820" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="22" r:id="rId1"/>
@@ -586,18 +586,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -698,128 +691,128 @@
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,7 +1031,7 @@
   <dimension ref="B4:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="B21" sqref="B21:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,102 +1059,102 @@
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="50" t="s">
         <v>92</v>
       </c>
       <c r="C13" s="43" t="s">
@@ -1174,15 +1167,15 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="43" t="s">
@@ -1203,84 +1196,84 @@
       <c r="F22" s="44"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="50" t="s">
         <v>92</v>
       </c>
       <c r="C30" s="43" t="s">
@@ -1291,13 +1284,13 @@
       <c r="F30" s="43"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1325,6 +1318,7 @@
     <mergeCell ref="C13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -12764,7 +12758,7 @@
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C19:F19"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
